--- a/Documents/Task list.xlsx
+++ b/Documents/Task list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tusmm-my.sharepoint.com/personal/a00290732_student_tus_ie/Documents/Desktop/SoftwareEngineeringGroup/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinz\Documents\Git Repos\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634839BC-3300-465A-AFD6-DDB17D18D386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F1A6C-81E2-4C2B-9182-0B40F9235C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D25320D7-A485-4B1E-B253-48CB68B7F152}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D25320D7-A485-4B1E-B253-48CB68B7F152}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -69,12 +69,6 @@
     <t>User Stories</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design database </t>
   </si>
   <si>
@@ -193,12 +187,39 @@
   </si>
   <si>
     <t>Conduct Junit tests(Delivery Driver class)</t>
+  </si>
+  <si>
+    <t>Set up Development Environment</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Dimitrije</t>
+  </si>
+  <si>
+    <t>Define System Architecture</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Define and Agree to Working Agreement</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,13 +389,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
@@ -387,6 +402,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,9 +435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -454,7 +475,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -560,7 +581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,24 +731,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7672CF5-5537-45C0-8115-E5F86E53123F}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,7 +758,7 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -747,401 +768,455 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45565</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="12">
         <v>45555</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45565</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
-        <v>45565</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="B32" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="B33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="B36" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="B37" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="B38" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="B39" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="B40" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="B41" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="B42" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Task list.xlsx
+++ b/Documents/Task list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinz\Documents\Git Repos\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43F1A6C-81E2-4C2B-9182-0B40F9235C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A275489-B30E-4569-AFA8-953C57A797E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D25320D7-A485-4B1E-B253-48CB68B7F152}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D25320D7-A485-4B1E-B253-48CB68B7F152}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -218,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -404,10 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,21 +734,21 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -781,12 +781,14 @@
       <c r="D2" s="12">
         <v>45565</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -806,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -819,14 +821,14 @@
       <c r="D4" s="12">
         <v>45565</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -843,7 +845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -857,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -871,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -882,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -893,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -904,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -915,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -926,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -937,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -948,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -962,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -976,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -990,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1018,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
